--- a/biology/Botanique/Ophrys_bourdon/Ophrys_bourdon.xlsx
+++ b/biology/Botanique/Ophrys_bourdon/Ophrys_bourdon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophrys fuciflora
 L'Ophrys bourdon ou Ophrys frelon (Ophrys fuciflora) est une espèce de plantes à fleurs de la famille des Orchidaceae. C'est une orchidée terrestre européenne.
@@ -512,33 +524,35 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Arachnites fuciflorus F.W.Schmidt[1]
-Arachnites oxyrhynchus Tod.[1]
-Epipactis arachnites (Scop.) F.W.Schmidt[1]
-Ophrys aegirtica P.Delforge[1]
-Ophrys baeteniorum P.Delforge[1]
-Ophrys candica subsp. minoa C.Alibertis &amp; A.Alibertis[1]
-Ophrys chestermanii (J.J. Wood) Gölz &amp; H.R. Reinhard (préféré par BioLib)[2]
-Ophrys dinarica Kranjcev &amp; P.Delforge[1]
-Ophrys episcopalis Poir.[1]
-Ophrys flavescens Sassenf.[1]
-Ophrys fuciflora subsp. chestermanii (J.J. Wood) H. Blatt &amp; W. Wirth[2]
-Ophrys gresivaudanica O.Gerbaud[1]
-Ophrys halia Paulus[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Arachnites fuciflorus F.W.Schmidt
+Arachnites oxyrhynchus Tod.
+Epipactis arachnites (Scop.) F.W.Schmidt
+Ophrys aegirtica P.Delforge
+Ophrys baeteniorum P.Delforge
+Ophrys candica subsp. minoa C.Alibertis &amp; A.Alibertis
+Ophrys chestermanii (J.J. Wood) Gölz &amp; H.R. Reinhard (préféré par BioLib)
+Ophrys dinarica Kranjcev &amp; P.Delforge
+Ophrys episcopalis Poir.
+Ophrys flavescens Sassenf.
+Ophrys fuciflora subsp. chestermanii (J.J. Wood) H. Blatt &amp; W. Wirth
+Ophrys gresivaudanica O.Gerbaud
+Ophrys halia Paulus
 Ophrys holosericea subsp. holosericea
-Ophrys holosericea subsp. chestermanii J.J. Wood[2]
-Ophrys kranjcevii P.Delforge[1]
-Ophrys linearis (Moggr.) P.Delforge, Devillers &amp; Devillers-Tersch.[1]
-Ophrys malvasiana S.Hertel &amp; Weyland[1]
-Ophrys nicotiae Zodda[1]
-Ophrys obscura Beck[1]
-Ophrys pharia Devillers &amp; Devillers-Tersch.[1]
-Ophrys saliarisii Paulus &amp; M.Hirth[1]
-Ophrys tili M.Hirth &amp; H.Spaeth[1]
-Ophrys untchjii (M.Schulze) P.Delforge[1]
-Orchis arachnites Scop.[1]</t>
+Ophrys holosericea subsp. chestermanii J.J. Wood
+Ophrys kranjcevii P.Delforge
+Ophrys linearis (Moggr.) P.Delforge, Devillers &amp; Devillers-Tersch.
+Ophrys malvasiana S.Hertel &amp; Weyland
+Ophrys nicotiae Zodda
+Ophrys obscura Beck
+Ophrys pharia Devillers &amp; Devillers-Tersch.
+Ophrys saliarisii Paulus &amp; M.Hirth
+Ophrys tili M.Hirth &amp; H.Spaeth
+Ophrys untchjii (M.Schulze) P.Delforge
+Orchis arachnites Scop.</t>
         </is>
       </c>
     </row>
@@ -566,9 +580,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (20 février 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (20 février 2023) :
 Ophrys fuciflora subsp. andria (P.Delforge) Faurh.
 Ophrys fuciflora subsp. apulica O.Danesch &amp; E.Danesch
 Ophrys fuciflora subsp. biancae (Tod.) Faurh.
@@ -608,7 +624,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs sont organisées en un épi lâche. Les sépales peuvent être roses, pourpres ou blanchâtres. Le labelle cordiforme de 9 à 13 mm pointe vers l'avant avec un motif violet ou bleu bordé de jaunâtre. La pollinisation est réalisée grâce aux abeilles mâles du genre Eucera. L'autopollinisation est possible. Hauteur : 20 à 40 cm.
 </t>
@@ -639,7 +657,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Juin-juillet.
 </t>
@@ -670,7 +690,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut se développer dans les prés, les lisières des champs, les bords des routes, les gazons ras, les versants des collines, etc. sur sol calcaire.
 </t>
@@ -701,7 +723,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se rencontre jusqu'à 1 300 mètres d'altitude, en France, en Allemagne, dans le sud de la Belgique, dans le sud-est de la Grande-Bretagne, dans le centre et le sud de l'Europe où existent de nombreuses sous-espèces.
 </t>
@@ -732,7 +756,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est représentée sur des timbres préoblitérés français émis en 2002.
 </t>
@@ -763,9 +789,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure[3]. En France, elle est protégée en Meurthe-et-Moselle et dans les régions Centre-Val de Loire, Haute-Normandie et Basse-Normandie[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure. En France, elle est protégée en Meurthe-et-Moselle et dans les régions Centre-Val de Loire, Haute-Normandie et Basse-Normandie.
 </t>
         </is>
       </c>
